--- a/Mini-Projeto2/dados-excel.xlsx
+++ b/Mini-Projeto2/dados-excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,527 +677,523 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Silva</t>
+          <t>Clara Mendes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1985-07-20</t>
+          <t>1995-06-30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>joao.silva@example.com</t>
+          <t>clara.mendes@example.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PS5|Xbox Series X</t>
+          <t>PS5|Switch</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>The Last of Us|Halo Infinite|FIFA 21|Cyberpunk 2077|GTA V</t>
+          <t>Final Fantasy VII Remake|Celeste|Persona 5|Hollow Knight|Monster Hunter Rise</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clara Mendes</t>
+          <t>Bruno Almeida</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1995-06-30</t>
+          <t>1992-12-10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>clara.mendes@example.com</t>
+          <t>bruno.almeida@example.com</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PS5|Switch</t>
+          <t>Xbox One|PS4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Final Fantasy VII Remake|Celeste|Persona 5|Hollow Knight|Monster Hunter Rise</t>
+          <t>Gears 5|Death Stranding|Ghost of Tsushima|Sekiro|Horizon Zero Dawn</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bruno Almeida</t>
+          <t>Lucas Martins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1992-12-10</t>
+          <t>1998-09-25</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>bruno.almeida@example.com</t>
+          <t>lucas.martins@example.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Recife</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Xbox One|PS4</t>
+          <t>PS5|Xbox Series X</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Gears 5|Death Stranding|Ghost of Tsushima|Sekiro|Horizon Zero Dawn</t>
+          <t>Demon's Souls|Yakuza Like a Dragon|Returnal|Resident Evil 3|Ghost of Tsushima</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Oliveira</t>
+          <t>João Silva</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1990-11-05</t>
+          <t>1985-07-20</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>maria.oliveira@example.com</t>
+          <t>joao.silva@example.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PS4|Switch</t>
+          <t>PS5|Xbox Series X</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>
+          <t>The Last of Us|Halo Infinite|FIFA 21|Cyberpunk 2077|GTA V</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lucas Martins</t>
+          <t>Maria Oliveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1998-09-25</t>
+          <t>1990-11-05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>lucas.martins@example.com</t>
+          <t>maria.oliveira@example.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Recife</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PS5|Xbox Series X</t>
+          <t>PS4|Switch</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Demon's Souls|Yakuza Like a Dragon|Returnal|Resident Evil 3|Ghost of Tsushima</t>
+          <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>João Silva</t>
+          <t>Pedro Souza</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1985-07-20</t>
+          <t>1978-03-15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>joao.silva@example.com</t>
+          <t>pedro.souza@example.com</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Salvador</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PS5|Xbox Series X</t>
+          <t>Xbox One|PS5</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>The Last of Us|Halo Infinite|FIFA 21|Cyberpunk 2077|GTA V</t>
+          <t>Red Dead Redemption 2|Forza Horizon 4|Spider-Man|Bloodborne|Fortnite</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Maria Oliveira</t>
+          <t>Ana Costa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1990-11-05</t>
+          <t>2000-02-30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>maria.oliveira@example.com</t>
+          <t>ana.costa@example.com</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PS4|Switch</t>
+          <t>Switch|PS4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>
+          <t>Super Mario Odyssey|The Witcher 3|Metroid Dread|Hades|Splatoon 2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pedro Souza</t>
+          <t>Luiz Pereira</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1978-03-15</t>
+          <t>1982-08-19</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>pedro.souza@example.com</t>
+          <t>luiz.pereira@example.com</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Xbox One|PS5</t>
+          <t>PS5|Xbox Series X</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Red Dead Redemption 2|Forza Horizon 4|Spider-Man|Bloodborne|Fortnite</t>
+          <t>Assassin's Creed Valhalla|Doom Eternal|Resident Evil Village|Sekiro|Control</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ana Costa</t>
+          <t>Clara Mendes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2000-02-30</t>
+          <t>1995-06-30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ana.costa@example.com</t>
+          <t>clara.mendes@example.com</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Switch|PS4</t>
+          <t>PS5|Switch</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Super Mario Odyssey|The Witcher 3|Metroid Dread|Hades|Splatoon 2</t>
+          <t>Final Fantasy VII Remake|Celeste|Persona 5|Hollow Knight|Monster Hunter Rise</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Luiz Pereira</t>
+          <t>Bruno Almeida</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1982-08-19</t>
+          <t>1992-12-10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>luiz.pereira@example.com</t>
+          <t>bruno.almeida@example.com</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PS5|Xbox Series X</t>
+          <t>Xbox One|PS4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Assassin's Creed Valhalla|Doom Eternal|Resident Evil Village|Sekiro|Control</t>
+          <t>Gears 5|Death Stranding|Ghost of Tsushima|Sekiro|Horizon Zero Dawn</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>João Silva</t>
+          <t>Maria Oliveira</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1985-07-20</t>
+          <t>1999-11-05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>joao.silva@example.com</t>
+          <t>maria.oliveira@example.com</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>RJ</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>PS5|Xbox Series X</t>
-        </is>
-      </c>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>The Last of Us|Halo Infinite|FIFA 21|Cyberpunk 2077|GTA V</t>
+          <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Clara Mendes</t>
+          <t>Lucas Martins</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1995-06-30</t>
+          <t>1998-09-25</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>clara.mendes@example.com</t>
+          <t>lucas.martins@example.com</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Recife</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PS5|Switch</t>
+          <t>PS5|Xbox Series X</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Final Fantasy VII Remake|Celeste|Persona 5|Hollow Knight|Monster Hunter Rise</t>
+          <t>Demon's Souls|Yakuza Like a Dragon|Returnal|Resident Evil 3|Ghost of Tsushima</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bruno Almeida</t>
+          <t>João Silva</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1992-12-10</t>
+          <t>1985-07-20</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>bruno.almeida@example.com</t>
+          <t>joao.silva@example.com</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Xbox One|PS4</t>
+          <t>PS5|Xbox Series X</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Gears 5|Death Stranding|Ghost of Tsushima|Sekiro|Horizon Zero Dawn</t>
+          <t>The Last of Us|Halo Infinite|FIFA 21|Cyberpunk 2077|GTA V</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1206,7 +1202,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1999-11-05</t>
+          <t>1990-11-05</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1224,7 +1220,11 @@
           <t>PR</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PS4|Switch</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>
@@ -1233,231 +1233,231 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lucas Martins</t>
+          <t>Pedro Souza</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1998-09-25</t>
+          <t>1978-03-15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>lucas.martins@example.com</t>
+          <t>pedro.souza@example.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Recife</t>
+          <t>Salvador</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PS5|Xbox Series X</t>
+          <t>Xbox One|PS5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Demon's Souls|Yakuza Like a Dragon|Returnal|Resident Evil 3|Ghost of Tsushima</t>
+          <t>Red Dead Redemption 2|Forza Horizon 4|Spider-Man|Bloodborne|Fortnite</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>João Silva</t>
+          <t>Ana Costa</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1985-07-20</t>
+          <t>2002-03-30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>joao.silva@example.com</t>
+          <t>ana.costa@example.com</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PS5|Xbox Series X</t>
+          <t>Switch|PS4</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>The Last of Us|Halo Infinite|FIFA 21|Cyberpunk 2077|GTA V</t>
+          <t>Super Mario Odyssey|The Witcher 3|Metroid Dread|Hades|Splatoon 2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Maria Oliveira</t>
+          <t>Luiz Pereira</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1990-11-05</t>
+          <t>1982-08-19</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>maria.oliveira@example.com</t>
+          <t>luiz.pereira@example.com</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PS4|Switch</t>
+          <t>PS5|Xbox Series X</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>
+          <t>Assassin's Creed Valhalla|Doom Eternal|Resident Evil Village|Sekiro|Control</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pedro Souza</t>
+          <t>Clara Mendes</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1978-03-15</t>
+          <t>1995-06-30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>pedro.souza@example.com</t>
+          <t>clara.mendes@example.com</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Xbox One|PS5</t>
+          <t>PS5|Switch</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Red Dead Redemption 2|Forza Horizon 4|Spider-Man|Bloodborne|Fortnite</t>
+          <t>Final Fantasy VII Remake|Celeste|Persona 5|Hollow Knight|Monster Hunter Rise</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ana Costa</t>
+          <t>Bruno Almeida</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2002-03-30</t>
+          <t>1992-12-10</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ana.costa@example.com</t>
+          <t>bruno.almeida@example.com</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Switch|PS4</t>
+          <t>Xbox One|PS4</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Super Mario Odyssey|The Witcher 3|Metroid Dread|Hades|Splatoon 2</t>
+          <t>Gears 5|Death Stranding|Ghost of Tsushima|Sekiro|Horizon Zero Dawn</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Luiz Pereira</t>
+          <t>Lucas Martins</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1982-08-19</t>
+          <t>1998-09-25</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>luiz.pereira@example.com</t>
+          <t>lucas.martins@example.com</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>Recife</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1466,206 +1466,6 @@
         </is>
       </c>
       <c r="H26" t="inlineStr">
-        <is>
-          <t>Assassin's Creed Valhalla|Doom Eternal|Resident Evil Village|Sekiro|Control</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>João Silva</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1985-07-20</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>joao.silva@example.com</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>RJ</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>PS5|Xbox Series X</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>The Last of Us|Halo Infinite|FIFA 21|Cyberpunk 2077|GTA V</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>7</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Clara Mendes</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1995-06-30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>clara.mendes@example.com</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>PS5|Switch</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Final Fantasy VII Remake|Celeste|Persona 5|Hollow Knight|Monster Hunter Rise</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>8</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Bruno Almeida</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1992-12-10</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>bruno.almeida@example.com</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Porto Alegre</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Xbox One|PS4</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Gears 5|Death Stranding|Ghost of Tsushima|Sekiro|Horizon Zero Dawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>9</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Maria Oliveira</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1990-11-05</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>maria.oliveira@example.com</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Curitiba</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>PS4|Switch</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>10</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Lucas Martins</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1998-09-25</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>lucas.martins@example.com</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Recife</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>PS5|Xbox Series X</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
         <is>
           <t>Demon's Souls|Yakuza Like a Dragon|Returnal|Resident Evil 3|Ghost of Tsushima</t>
         </is>

--- a/Mini-Projeto2/dados-excel.xlsx
+++ b/Mini-Projeto2/dados-excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2000-03-30</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -757,71 +757,71 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lucas Martins</t>
+          <t>Maria Oliveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1998-09-25</t>
+          <t>1990-11-05</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>lucas.martins@example.com</t>
+          <t>maria.oliveiraexamplecom@example.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Recife</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PS5|Xbox Series X</t>
+          <t>PS4|Switch</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Demon's Souls|Yakuza Like a Dragon|Returnal|Resident Evil 3|Ghost of Tsushima</t>
+          <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Silva</t>
+          <t>Lucas Martins</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1985-07-20</t>
+          <t>1998-09-25</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>joao.silva@example.com</t>
+          <t>lucas.martins@example.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Recife</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -831,643 +831,83 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>The Last of Us|Halo Infinite|FIFA 21|Cyberpunk 2077|GTA V</t>
+          <t>Demon's Souls|Yakuza Like a Dragon|Returnal|Resident Evil 3|Ghost of Tsushima</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Oliveira</t>
+          <t>Pedro Souza</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1990-11-05</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>maria.oliveira@example.com</t>
+          <t>pedro.souza@example.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Salvador</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PS4|Switch</t>
+          <t>Xbox One|PS5</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>
+          <t>Red Dead Redemption 2|Forza Horizon 4|Spider-Man|Bloodborne|Fortnite</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pedro Souza</t>
+          <t>Maria Oliveira</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1978-03-15</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>pedro.souza@example.com</t>
+          <t>maria.oliveira@example.com</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Xbox One|PS5</t>
-        </is>
-      </c>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Red Dead Redemption 2|Forza Horizon 4|Spider-Man|Bloodborne|Fortnite</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Ana Costa</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2000-02-30</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ana.costa@example.com</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Fortaleza</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Switch|PS4</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Super Mario Odyssey|The Witcher 3|Metroid Dread|Hades|Splatoon 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Luiz Pereira</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1982-08-19</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>luiz.pereira@example.com</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Belo Horizonte</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>PS5|Xbox Series X</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Assassin's Creed Valhalla|Doom Eternal|Resident Evil Village|Sekiro|Control</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>7</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Clara Mendes</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1995-06-30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>clara.mendes@example.com</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>PS5|Switch</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Final Fantasy VII Remake|Celeste|Persona 5|Hollow Knight|Monster Hunter Rise</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>8</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Bruno Almeida</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1992-12-10</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>bruno.almeida@example.com</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Porto Alegre</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Xbox One|PS4</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Gears 5|Death Stranding|Ghost of Tsushima|Sekiro|Horizon Zero Dawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>9</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Maria Oliveira</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1999-11-05</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>maria.oliveira@example.com</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Curitiba</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>10</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Lucas Martins</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1998-09-25</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>lucas.martins@example.com</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Recife</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>PS5|Xbox Series X</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Demon's Souls|Yakuza Like a Dragon|Returnal|Resident Evil 3|Ghost of Tsushima</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>João Silva</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1985-07-20</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>joao.silva@example.com</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>RJ</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>PS5|Xbox Series X</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>The Last of Us|Halo Infinite|FIFA 21|Cyberpunk 2077|GTA V</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Maria Oliveira</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1990-11-05</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>maria.oliveira@example.com</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Curitiba</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>PS4|Switch</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Pedro Souza</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1978-03-15</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>pedro.souza@example.com</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Salvador</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Xbox One|PS5</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Red Dead Redemption 2|Forza Horizon 4|Spider-Man|Bloodborne|Fortnite</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Ana Costa</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2002-03-30</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ana.costa@example.com</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Fortaleza</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Switch|PS4</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Super Mario Odyssey|The Witcher 3|Metroid Dread|Hades|Splatoon 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Luiz Pereira</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1982-08-19</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>luiz.pereira@example.com</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Belo Horizonte</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>PS5|Xbox Series X</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Assassin's Creed Valhalla|Doom Eternal|Resident Evil Village|Sekiro|Control</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>7</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Clara Mendes</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1995-06-30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>clara.mendes@example.com</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>PS5|Switch</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Final Fantasy VII Remake|Celeste|Persona 5|Hollow Knight|Monster Hunter Rise</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>8</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Bruno Almeida</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1992-12-10</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>bruno.almeida@example.com</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Porto Alegre</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Xbox One|PS4</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Gears 5|Death Stranding|Ghost of Tsushima|Sekiro|Horizon Zero Dawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>10</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Lucas Martins</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1998-09-25</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>lucas.martins@example.com</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Recife</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>PS5|Xbox Series X</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Demon's Souls|Yakuza Like a Dragon|Returnal|Resident Evil 3|Ghost of Tsushima</t>
         </is>
       </c>
     </row>
